--- a/data/trans_dic/P69$problemSueño-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69$problemSueño-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.216619731131124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1422869442638305</v>
+        <v>0.1422869442638306</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1355642590910476</v>
@@ -685,7 +685,7 @@
         <v>0.2745030736070417</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2358054081474737</v>
+        <v>0.2358054081474736</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.125002757232567</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06842343188092251</v>
+        <v>0.07077057945962281</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1288223105037394</v>
+        <v>0.142209004570782</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1162545897535034</v>
+        <v>0.1096433081451479</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04588765873404582</v>
+        <v>0.04626875155124201</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05255599304963027</v>
+        <v>0.0523451031883575</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1030431464512811</v>
+        <v>0.1038709829983675</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1078045128517515</v>
+        <v>0.1053720368692963</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09887200891783041</v>
+        <v>0.1254811202806094</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07802956733184363</v>
+        <v>0.07523045515388925</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1505712936011401</v>
+        <v>0.1554089086323024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.137310612033428</v>
+        <v>0.1398226690825387</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1068777968282668</v>
+        <v>0.1020355658747075</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1975258354041622</v>
+        <v>0.1942287680962869</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3574665445861424</v>
+        <v>0.3567627480803866</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3613773459322887</v>
+        <v>0.3396150427217834</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3348991810969207</v>
+        <v>0.312245215454054</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2935257839444378</v>
+        <v>0.2941953664010453</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3547118283582705</v>
+        <v>0.3597999785786054</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5025718635858423</v>
+        <v>0.5063520320176219</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3832084161956607</v>
+        <v>0.3820635512100625</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1865262114478396</v>
+        <v>0.1888804104354475</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3221931932357093</v>
+        <v>0.324011925276288</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3422696948879935</v>
+        <v>0.3403733588416379</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2905619511210842</v>
+        <v>0.2875458734517168</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1867788290899594</v>
+        <v>0.1835730744882593</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1976705799740807</v>
+        <v>0.197106649441692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1435466703565669</v>
+        <v>0.1385589433568884</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1367150747990828</v>
+        <v>0.1344241986895623</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1660367541347234</v>
+        <v>0.1664116432495489</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2290641261215118</v>
+        <v>0.231135639664017</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2396483310642118</v>
+        <v>0.2325482789778784</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2077214650599035</v>
+        <v>0.2005476046383839</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1984851657290096</v>
+        <v>0.1932162870307634</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2228847128359248</v>
+        <v>0.227687969501519</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1913341331036438</v>
+        <v>0.1933079539644488</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.181859727522695</v>
+        <v>0.1796309118833817</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2952181464477768</v>
+        <v>0.292484891578587</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3168486796678651</v>
+        <v>0.314528758180785</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2586401026579702</v>
+        <v>0.2463712139641438</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2449937339480617</v>
+        <v>0.2442342478468748</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3290795973226133</v>
+        <v>0.3171816572527989</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3964807782532918</v>
+        <v>0.4020466423690252</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4020944378962215</v>
+        <v>0.3985024099591193</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3037651209596212</v>
+        <v>0.3020793091225576</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2881652873199485</v>
+        <v>0.2855528156509882</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3230166310762437</v>
+        <v>0.3244174190126495</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2916928601452989</v>
+        <v>0.286190664763293</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2590287335573537</v>
+        <v>0.2534129220389716</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4372971550756995</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2897777127970248</v>
+        <v>0.2897777127970249</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2245346826167352</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2338675562154556</v>
+        <v>0.2391524494341322</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1947583943852545</v>
+        <v>0.2192797624535401</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2970992569004445</v>
+        <v>0.3096366069157043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1712192290015156</v>
+        <v>0.1732245544768164</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1303421215026824</v>
+        <v>0.1337239453346182</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1936464528699589</v>
+        <v>0.1933950235986547</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2345407973391013</v>
+        <v>0.2438905157022266</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2574226847465151</v>
+        <v>0.2687697072272171</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2173585648610047</v>
+        <v>0.2139430824235234</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2356762344295925</v>
+        <v>0.2306797203839923</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3047567726871543</v>
+        <v>0.3100540846352164</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.250941177830262</v>
+        <v>0.2533666266087212</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4561735193135745</v>
+        <v>0.4642344911536798</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4907766444956722</v>
+        <v>0.5071265517344857</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5599719090778041</v>
+        <v>0.5782228275703982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4363531256889272</v>
+        <v>0.4303336819243287</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3389681324094592</v>
+        <v>0.3468801767700932</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4834220668325604</v>
+        <v>0.4847101879238424</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4748549203018533</v>
+        <v>0.4774282458552981</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.441104229306025</v>
+        <v>0.4357706756226677</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3724370302916499</v>
+        <v>0.3783868268917896</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4352052124623892</v>
+        <v>0.4370807039001161</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.482461012421314</v>
+        <v>0.4837571449085395</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.405777154964431</v>
+        <v>0.409131260892492</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1894013191336443</v>
+        <v>0.1873924258736802</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2118686566746162</v>
+        <v>0.2120957624357122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1935441484429685</v>
+        <v>0.1927618122528164</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1599261073552732</v>
+        <v>0.152769220740838</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1619313647916679</v>
+        <v>0.166400985339355</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2335090934262103</v>
+        <v>0.2320380269767979</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.259377463026892</v>
+        <v>0.2617988119915161</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2407506480784401</v>
+        <v>0.2408298126618486</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1904501091331066</v>
+        <v>0.1910048197338785</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2373613136806347</v>
+        <v>0.2355410115215651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2383085861455493</v>
+        <v>0.2380149277525957</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2076263623606608</v>
+        <v>0.2093112114163896</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2691109502259632</v>
+        <v>0.2680494230285334</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3096738667320293</v>
+        <v>0.3136808919010208</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2969418363699701</v>
+        <v>0.2942039944388385</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2541479770599595</v>
+        <v>0.2547825996270651</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2746614329706836</v>
+        <v>0.2743791551200981</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3578815237715143</v>
+        <v>0.3603438400527519</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3913119486766963</v>
+        <v>0.3878154785327563</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3255101439241633</v>
+        <v>0.3291630633214596</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2576141302133736</v>
+        <v>0.2555731421493981</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3159390324103137</v>
+        <v>0.3149660698995849</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3124848635257799</v>
+        <v>0.3184266486614154</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2729316248693414</v>
+        <v>0.2741871616377525</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7558</v>
+        <v>7818</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7434</v>
+        <v>8206</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6462</v>
+        <v>6094</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1630</v>
+        <v>1643</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3909</v>
+        <v>3940</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1943</v>
+        <v>1899</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2308</v>
+        <v>2929</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11551</v>
+        <v>11137</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14400</v>
+        <v>14863</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10107</v>
+        <v>10292</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6291</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21819</v>
+        <v>21455</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20627</v>
+        <v>20587</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20086</v>
+        <v>18876</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11895</v>
+        <v>11090</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11027</v>
+        <v>11052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13456</v>
+        <v>13649</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9058</v>
+        <v>9126</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8946</v>
+        <v>8920</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>27612</v>
+        <v>27960</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30814</v>
+        <v>30988</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25193</v>
+        <v>25053</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17104</v>
+        <v>16926</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>53595</v>
+        <v>52675</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43779</v>
+        <v>43654</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>32791</v>
+        <v>31652</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36590</v>
+        <v>35977</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19687</v>
+        <v>19732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>29911</v>
+        <v>30181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29852</v>
+        <v>28967</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>45586</v>
+        <v>44011</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>80489</v>
+        <v>78352</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>78467</v>
+        <v>80158</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>67541</v>
+        <v>68238</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>88583</v>
+        <v>87497</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>84711</v>
+        <v>83927</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>70173</v>
+        <v>69660</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>59083</v>
+        <v>56280</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>65570</v>
+        <v>65367</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39019</v>
+        <v>37609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>51772</v>
+        <v>52499</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>50087</v>
+        <v>49639</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>66663</v>
+        <v>66293</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>116855</v>
+        <v>115796</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>113719</v>
+        <v>114212</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>102968</v>
+        <v>101026</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>126172</v>
+        <v>123436</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17324</v>
+        <v>17715</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8976</v>
+        <v>10106</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18597</v>
+        <v>19381</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13165</v>
+        <v>13319</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8340</v>
+        <v>8556</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8970</v>
+        <v>8958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17288</v>
+        <v>17977</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25479</v>
+        <v>26603</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>30008</v>
+        <v>29537</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21779</v>
+        <v>21317</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>41539</v>
+        <v>42261</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>44133</v>
+        <v>44559</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33791</v>
+        <v>34388</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22619</v>
+        <v>23373</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35051</v>
+        <v>36193</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33551</v>
+        <v>33088</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21688</v>
+        <v>22194</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22393</v>
+        <v>22452</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35001</v>
+        <v>35190</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>43660</v>
+        <v>43132</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>51418</v>
+        <v>52239</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>40217</v>
+        <v>40391</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>65760</v>
+        <v>65937</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>71364</v>
+        <v>71954</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>89300</v>
+        <v>88353</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68914</v>
+        <v>68988</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>67085</v>
+        <v>66813</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>60780</v>
+        <v>58060</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>35644</v>
+        <v>36628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>50166</v>
+        <v>49850</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>56103</v>
+        <v>56627</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>82284</v>
+        <v>82311</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>131716</v>
+        <v>132100</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>128199</v>
+        <v>127216</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>134146</v>
+        <v>133981</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>149871</v>
+        <v>151087</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>126882</v>
+        <v>126381</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>100726</v>
+        <v>102030</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>102923</v>
+        <v>101974</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>96588</v>
+        <v>96830</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>60459</v>
+        <v>60397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>76885</v>
+        <v>77414</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>84640</v>
+        <v>83884</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>111253</v>
+        <v>112501</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>178167</v>
+        <v>176756</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>170639</v>
+        <v>170113</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>175901</v>
+        <v>179245</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>197010</v>
+        <v>197916</v>
       </c>
     </row>
     <row r="20">
